--- a/Web extensions telefòniques/arxiu_telefonia.xlsx
+++ b/Web extensions telefòniques/arxiu_telefonia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnicasmecanicas-my.sharepoint.com/personal/aberga_tmipal_com/Documents/IT_TMI/ORANGE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnicasmecanicas-my.sharepoint.com/personal/itpractice_tmipal_com/Documents/Documentos/GitHub/portafoli/Web extensions telefòniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60219CD-EBD2-437F-A6AE-BCA018802907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A60219CD-EBD2-437F-A6AE-BCA018802907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C70307-F015-43FC-A6A9-DEFF26379724}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B81C1B4-1ED8-4653-9717-BF60D5D93CDF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4B81C1B4-1ED8-4653-9717-BF60D5D93CDF}"/>
   </bookViews>
   <sheets>
     <sheet name="ListadoPuestos-CGIPIPCENTREX001" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="746">
   <si>
     <t>Webex</t>
   </si>
@@ -1274,9 +1274,6 @@
     <t>973981365</t>
   </si>
   <si>
-    <t>Anael Riera</t>
-  </si>
-  <si>
     <t>1366</t>
   </si>
   <si>
@@ -2286,13 +2283,19 @@
   </si>
   <si>
     <t>wH)s8YgiHF</t>
+  </si>
+  <si>
+    <t>Anael</t>
+  </si>
+  <si>
+    <t>Riera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2897,11 +2900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B924CCF6-ACEC-41F7-BE2D-2D2C72A9ACED}">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -2916,7 +2919,7 @@
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2322</v>
@@ -2999,7 +3002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>9015</v>
@@ -3041,7 +3044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2438</v>
@@ -3083,7 +3086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>6295</v>
@@ -3125,7 +3128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0025</v>
@@ -3167,7 +3170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>4647</v>
@@ -3209,7 +3212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>4834</v>
@@ -3251,7 +3254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2251</v>
@@ -3293,7 +3296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0891</v>
@@ -3335,7 +3338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0576</v>
@@ -3377,7 +3380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0689</v>
@@ -3419,7 +3422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>8752</v>
@@ -3461,7 +3464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>8753</v>
@@ -3503,7 +3506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>8754</v>
@@ -3545,7 +3548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2795</v>
@@ -3587,7 +3590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>6908</v>
@@ -3629,7 +3632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>4822</v>
@@ -3671,7 +3674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>8539</v>
@@ -3713,7 +3716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>4325</v>
@@ -3755,7 +3758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>8027</v>
@@ -3797,7 +3800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0187</v>
@@ -3839,7 +3842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0198</v>
@@ -3881,7 +3884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0654</v>
@@ -3923,7 +3926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>4212</v>
@@ -3965,7 +3968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>8401</v>
@@ -4007,7 +4010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>7007</v>
@@ -4049,7 +4052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2702</v>
@@ -4091,7 +4094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0810</v>
@@ -4133,7 +4136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>6577</v>
@@ -4175,7 +4178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2255</v>
@@ -4217,7 +4220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>3944</v>
@@ -4259,7 +4262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>4927</v>
@@ -4301,7 +4304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>3648</v>
@@ -4343,7 +4346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0295</v>
@@ -4385,7 +4388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>9435</v>
@@ -4427,7 +4430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0985</v>
@@ -4469,7 +4472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>7764</v>
@@ -4511,7 +4514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2053</v>
@@ -4553,7 +4556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>3939</v>
@@ -4595,7 +4598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0331</v>
@@ -4637,7 +4640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>3315</v>
@@ -4679,7 +4682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>1405</v>
@@ -4721,7 +4724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>3506</v>
@@ -4763,7 +4766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>5367</v>
@@ -4805,7 +4808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2264</v>
@@ -4847,7 +4850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2274</v>
@@ -4889,7 +4892,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2372</v>
@@ -4931,7 +4934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>4733</v>
@@ -4973,7 +4976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>9581</v>
@@ -5015,7 +5018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0164</v>
@@ -5057,7 +5060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>2714</v>
@@ -5099,7 +5102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>3597</v>
@@ -5141,7 +5144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>3600</v>
@@ -5183,7 +5186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>3609</v>
@@ -5225,7 +5228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>4703</v>
@@ -5267,7 +5270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>9571</v>
@@ -5309,7 +5312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>5100</v>
@@ -5351,7 +5354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>0032</v>
@@ -5393,7 +5396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>9920</v>
@@ -5435,7 +5438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>9921</v>
@@ -5477,7 +5480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>8188</v>
@@ -5519,7 +5522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>5902</v>
@@ -5561,7 +5564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>5920</v>
@@ -5603,7 +5606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>5922</v>
@@ -5645,7 +5648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>5941</v>
@@ -5687,7 +5690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>5983</v>
@@ -5729,7 +5732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>5987</v>
@@ -5771,7 +5774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>6014</v>
@@ -5813,7 +5816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>6068</v>
@@ -5855,7 +5858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>3883</v>
@@ -5897,7 +5900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>N/A</v>
@@ -5939,7 +5942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>N/A</v>
@@ -5981,7 +5984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº MÓVIL]],4)</f>
         <v>N/A</v>
@@ -6023,7 +6026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1333</v>
@@ -6065,7 +6068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1334</v>
@@ -6107,7 +6110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1335</v>
@@ -6149,7 +6152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1336</v>
@@ -6191,7 +6194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1337</v>
@@ -6233,7 +6236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1338</v>
@@ -6275,7 +6278,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1339</v>
@@ -6317,7 +6320,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1340</v>
@@ -6359,7 +6362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1341</v>
@@ -6401,7 +6404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1342</v>
@@ -6443,7 +6446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:13" s="2" customFormat="1">
+    <row r="85" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1343</v>
@@ -6485,7 +6488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1344</v>
@@ -6527,7 +6530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1345</v>
@@ -6569,7 +6572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1346</v>
@@ -6611,7 +6614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1347</v>
@@ -6653,7 +6656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1348</v>
@@ -6695,7 +6698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1349</v>
@@ -6737,7 +6740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1350</v>
@@ -6779,7 +6782,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1351</v>
@@ -6821,7 +6824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1352</v>
@@ -6863,7 +6866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1353</v>
@@ -6905,7 +6908,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1354</v>
@@ -6947,7 +6950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1355</v>
@@ -6989,7 +6992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1356</v>
@@ -7031,7 +7034,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1357</v>
@@ -7073,7 +7076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1358</v>
@@ -7115,7 +7118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1359</v>
@@ -7157,7 +7160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1360</v>
@@ -7199,7 +7202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1361</v>
@@ -7241,7 +7244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1362</v>
@@ -7283,7 +7286,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1363</v>
@@ -7325,7 +7328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1364</v>
@@ -7367,7 +7370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1365</v>
@@ -7397,10 +7400,10 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>407</v>
+        <v>744</v>
       </c>
       <c r="K107" t="s">
-        <v>407</v>
+        <v>745</v>
       </c>
       <c r="L107" t="s">
         <v>51</v>
@@ -7409,16 +7412,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="2" customFormat="1">
+    <row r="108" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1366</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>14</v>
@@ -7451,16 +7454,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1367</v>
       </c>
       <c r="B109" t="s">
+        <v>409</v>
+      </c>
+      <c r="C109" t="s">
         <v>410</v>
-      </c>
-      <c r="C109" t="s">
-        <v>411</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -7493,16 +7496,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>1368</v>
       </c>
       <c r="B110" t="s">
+        <v>411</v>
+      </c>
+      <c r="C110" t="s">
         <v>412</v>
-      </c>
-      <c r="C110" t="s">
-        <v>413</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -7535,7 +7538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>N/A</v>
@@ -7568,7 +7571,7 @@
         <v>283</v>
       </c>
       <c r="K111" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L111" t="s">
         <v>42</v>
@@ -7577,7 +7580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>N/A</v>
@@ -7610,7 +7613,7 @@
         <v>283</v>
       </c>
       <c r="K112" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L112" t="s">
         <v>47</v>
@@ -7619,7 +7622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>N/A</v>
@@ -7652,7 +7655,7 @@
         <v>283</v>
       </c>
       <c r="K113" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L113" t="s">
         <v>51</v>
@@ -7661,7 +7664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f>RIGHT(ListadoPuestos_CGIPIPCENTREX001_2025_07_08_11_32_45_268[[#This Row],[Nº FIJO]],4)</f>
         <v>N/A</v>
@@ -7694,7 +7697,7 @@
         <v>283</v>
       </c>
       <c r="K114" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L114" t="s">
         <v>56</v>
@@ -7720,7 +7723,7 @@
       <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -7734,36 +7737,36 @@
     <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="G1" s="14"/>
       <c r="K1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="C2" s="7">
         <v>606602322</v>
@@ -7772,7 +7775,7 @@
         <v>3552</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F2" s="8">
         <v>606602322</v>
@@ -7786,12 +7789,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>429</v>
       </c>
       <c r="C3" s="11">
         <v>606639015</v>
@@ -7800,7 +7803,7 @@
         <v>3554</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F3" s="12">
         <v>606639015</v>
@@ -7814,12 +7817,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="C4" s="7">
         <v>607092438</v>
@@ -7828,7 +7831,7 @@
         <v>2438</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F4" s="8">
         <v>607092438</v>
@@ -7842,12 +7845,12 @@
         <v>Telefon OTS Programadors Guard</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>434</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>435</v>
       </c>
       <c r="C5" s="11">
         <v>608696295</v>
@@ -7856,7 +7859,7 @@
         <v>3425</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F5" s="12">
         <v>608696295</v>
@@ -7870,12 +7873,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="C6" s="7">
         <v>609620025</v>
@@ -7884,7 +7887,7 @@
         <v>3201</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F6" s="8">
         <v>609620025</v>
@@ -7898,12 +7901,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>440</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>441</v>
       </c>
       <c r="C7" s="11">
         <v>610514647</v>
@@ -7912,7 +7915,7 @@
         <v>3105</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F7" s="12">
         <v>610514647</v>
@@ -7926,12 +7929,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>443</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>444</v>
       </c>
       <c r="C8" s="7">
         <v>610514834</v>
@@ -7940,7 +7943,7 @@
         <v>3350</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F8" s="8">
         <v>610514834</v>
@@ -7954,12 +7957,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>446</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>447</v>
       </c>
       <c r="C9" s="11">
         <v>616322251</v>
@@ -7968,7 +7971,7 @@
         <v>2251</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F9" s="12">
         <v>616322251</v>
@@ -7982,12 +7985,12 @@
         <v>ROUTER MK</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>450</v>
       </c>
       <c r="C10" s="7">
         <v>616670891</v>
@@ -7996,7 +7999,7 @@
         <v>3227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F10" s="8">
         <v>616670891</v>
@@ -8010,12 +8013,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>452</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>453</v>
       </c>
       <c r="C11" s="11">
         <v>618490576</v>
@@ -8024,7 +8027,7 @@
         <v>3433</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F11" s="12">
         <v>618490576</v>
@@ -8038,12 +8041,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="C12" s="7">
         <v>618490689</v>
@@ -8052,7 +8055,7 @@
         <v>3225</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F12" s="8">
         <v>618490689</v>
@@ -8066,12 +8069,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>458</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>459</v>
       </c>
       <c r="C13" s="11">
         <v>618628752</v>
@@ -8080,7 +8083,7 @@
         <v>3300</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F13" s="12">
         <v>618628752</v>
@@ -8094,12 +8097,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>461</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>462</v>
       </c>
       <c r="C14" s="7">
         <v>618628753</v>
@@ -8108,7 +8111,7 @@
         <v>3602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F14" s="8">
         <v>618628753</v>
@@ -8122,12 +8125,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>464</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>465</v>
       </c>
       <c r="C15" s="11">
         <v>618628754</v>
@@ -8136,7 +8139,7 @@
         <v>3203</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F15" s="12">
         <v>618628754</v>
@@ -8150,12 +8153,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>468</v>
       </c>
       <c r="C16" s="7">
         <v>618832795</v>
@@ -8164,7 +8167,7 @@
         <v>3404</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F16" s="8">
         <v>618832795</v>
@@ -8178,12 +8181,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>470</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>471</v>
       </c>
       <c r="C17" s="11">
         <v>619126908</v>
@@ -8192,7 +8195,7 @@
         <v>3403</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F17" s="12">
         <v>619126908</v>
@@ -8206,12 +8209,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="C18" s="7">
         <v>619464822</v>
@@ -8220,7 +8223,7 @@
         <v>3500</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F18" s="8">
         <v>619464822</v>
@@ -8234,12 +8237,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>476</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>477</v>
       </c>
       <c r="C19" s="11">
         <v>620678539</v>
@@ -8248,7 +8251,7 @@
         <v>3430</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F19" s="12">
         <v>620678539</v>
@@ -8262,12 +8265,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>479</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="C20" s="7">
         <v>626154325</v>
@@ -8276,7 +8279,7 @@
         <v>3621</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F20" s="8">
         <v>626154325</v>
@@ -8290,12 +8293,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>482</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>483</v>
       </c>
       <c r="C21" s="11">
         <v>626998027</v>
@@ -8304,7 +8307,7 @@
         <v>3502</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F21" s="12">
         <v>626998027</v>
@@ -8318,12 +8321,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="C22" s="7">
         <v>627360187</v>
@@ -8332,7 +8335,7 @@
         <v>3503</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F22" s="8">
         <v>627360187</v>
@@ -8346,12 +8349,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>488</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>489</v>
       </c>
       <c r="C23" s="11">
         <v>627360198</v>
@@ -8360,7 +8363,7 @@
         <v>3252</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F23" s="12">
         <v>627360198</v>
@@ -8374,12 +8377,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="C24" s="7">
         <v>627360654</v>
@@ -8388,7 +8391,7 @@
         <v>3250</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F24" s="8">
         <v>627360654</v>
@@ -8402,12 +8405,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1">
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>494</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>495</v>
       </c>
       <c r="C25" s="11">
         <v>629384212</v>
@@ -8416,7 +8419,7 @@
         <v>3501</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F25" s="12">
         <v>629384212</v>
@@ -8430,12 +8433,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>498</v>
       </c>
       <c r="C26" s="7">
         <v>629388401</v>
@@ -8444,7 +8447,7 @@
         <v>3200</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F26" s="8">
         <v>629388401</v>
@@ -8458,12 +8461,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>500</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>501</v>
       </c>
       <c r="C27" s="11">
         <v>630007007</v>
@@ -8472,7 +8475,7 @@
         <v>3007</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F27" s="12">
         <v>630007007</v>
@@ -8486,12 +8489,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="C28" s="7">
         <v>630832702</v>
@@ -8500,7 +8503,7 @@
         <v>3505</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F28" s="8">
         <v>630832702</v>
@@ -8514,12 +8517,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>506</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>507</v>
       </c>
       <c r="C29" s="11">
         <v>634870810</v>
@@ -8528,7 +8531,7 @@
         <v>3206</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F29" s="12">
         <v>634870810</v>
@@ -8542,12 +8545,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>510</v>
       </c>
       <c r="C30" s="7">
         <v>636256577</v>
@@ -8556,7 +8559,7 @@
         <v>3402</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F30" s="8">
         <v>636256577</v>
@@ -8570,12 +8573,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="C31" s="11">
         <v>636312255</v>
@@ -8584,7 +8587,7 @@
         <v>3432</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F31" s="12">
         <v>636312255</v>
@@ -8598,12 +8601,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>516</v>
       </c>
       <c r="C32" s="7">
         <v>637273944</v>
@@ -8612,7 +8615,7 @@
         <v>3551</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F32" s="8">
         <v>637273944</v>
@@ -8626,12 +8629,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>518</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>519</v>
       </c>
       <c r="C33" s="11">
         <v>637274927</v>
@@ -8640,7 +8643,7 @@
         <v>3205</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F33" s="12">
         <v>637274927</v>
@@ -8654,12 +8657,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="C34" s="7">
         <v>639103648</v>
@@ -8668,7 +8671,7 @@
         <v>3648</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F34" s="8">
         <v>639103648</v>
@@ -8682,12 +8685,12 @@
         <v>PV GUARDIA DesvioCentraleta 6</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>524</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>525</v>
       </c>
       <c r="C35" s="11">
         <v>646510295</v>
@@ -8696,7 +8699,7 @@
         <v>3100</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F35" s="12">
         <v>646510295</v>
@@ -8710,12 +8713,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>528</v>
       </c>
       <c r="C36" s="7">
         <v>647719435</v>
@@ -8724,7 +8727,7 @@
         <v>3251</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F36" s="8">
         <v>647719435</v>
@@ -8738,12 +8741,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>530</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>531</v>
       </c>
       <c r="C37" s="11">
         <v>647860985</v>
@@ -8752,7 +8755,7 @@
         <v>985</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F37" s="12">
         <v>647860985</v>
@@ -8766,12 +8769,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="C38" s="7">
         <v>649927764</v>
@@ -8780,7 +8783,7 @@
         <v>3202</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F38" s="8">
         <v>649927764</v>
@@ -8794,12 +8797,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="C39" s="11">
         <v>661102053</v>
@@ -8808,7 +8811,7 @@
         <v>3301</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F39" s="12">
         <v>661102053</v>
@@ -8822,12 +8825,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>540</v>
       </c>
       <c r="C40" s="7">
         <v>662113939</v>
@@ -8836,7 +8839,7 @@
         <v>3553</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F40" s="8">
         <v>662113939</v>
@@ -8850,12 +8853,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>543</v>
       </c>
       <c r="C41" s="11">
         <v>662610331</v>
@@ -8864,7 +8867,7 @@
         <v>3504</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F41" s="12">
         <v>662610331</v>
@@ -8878,12 +8881,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>546</v>
       </c>
       <c r="C42" s="7">
         <v>663173315</v>
@@ -8892,7 +8895,7 @@
         <v>3429</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F42" s="8">
         <v>663173315</v>
@@ -8906,12 +8909,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>548</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>549</v>
       </c>
       <c r="C43" s="11">
         <v>663491405</v>
@@ -8920,7 +8923,7 @@
         <v>1405</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F43" s="12">
         <v>663491405</v>
@@ -8934,12 +8937,12 @@
         <v>Cano</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>551</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>552</v>
       </c>
       <c r="C44" s="7">
         <v>663873506</v>
@@ -8948,7 +8951,7 @@
         <v>3228</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F44" s="8">
         <v>663873506</v>
@@ -8962,12 +8965,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>554</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>555</v>
       </c>
       <c r="C45" s="11">
         <v>669905367</v>
@@ -8976,7 +8979,7 @@
         <v>3401</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F45" s="12">
         <v>669905367</v>
@@ -8990,12 +8993,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="C46" s="7">
         <v>671132264</v>
@@ -9004,7 +9007,7 @@
         <v>3207</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F46" s="8">
         <v>671132264</v>
@@ -9018,12 +9021,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>560</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>561</v>
       </c>
       <c r="C47" s="11">
         <v>671132274</v>
@@ -9032,7 +9035,7 @@
         <v>2274</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F47" s="12">
         <v>671132274</v>
@@ -9046,12 +9049,12 @@
         <v>ROUTER HS</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>563</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>564</v>
       </c>
       <c r="C48" s="7">
         <v>671132372</v>
@@ -9060,7 +9063,7 @@
         <v>3204</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F48" s="8">
         <v>671132372</v>
@@ -9074,12 +9077,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>566</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>567</v>
       </c>
       <c r="C49" s="11">
         <v>671904733</v>
@@ -9088,7 +9091,7 @@
         <v>3555</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F49" s="12">
         <v>671904733</v>
@@ -9102,12 +9105,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="C50" s="7">
         <v>672299581</v>
@@ -9116,7 +9119,7 @@
         <v>3556</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F50" s="8">
         <v>672299581</v>
@@ -9130,12 +9133,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>572</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>573</v>
       </c>
       <c r="C51" s="11">
         <v>673050164</v>
@@ -9144,7 +9147,7 @@
         <v>3226</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F51" s="12">
         <v>673050164</v>
@@ -9158,12 +9161,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="C52" s="7">
         <v>673072714</v>
@@ -9172,7 +9175,7 @@
         <v>3605</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F52" s="8">
         <v>673072714</v>
@@ -9186,12 +9189,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>578</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>579</v>
       </c>
       <c r="C53" s="11">
         <v>673843597</v>
@@ -9200,7 +9203,7 @@
         <v>3405</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F53" s="12">
         <v>673843597</v>
@@ -9214,12 +9217,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="C54" s="7">
         <v>673843600</v>
@@ -9228,7 +9231,7 @@
         <v>3431</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F54" s="8">
         <v>673843600</v>
@@ -9242,12 +9245,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>584</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>585</v>
       </c>
       <c r="C55" s="11">
         <v>673843609</v>
@@ -9256,7 +9259,7 @@
         <v>3427</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F55" s="12">
         <v>673843609</v>
@@ -9270,12 +9273,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>588</v>
       </c>
       <c r="C56" s="7">
         <v>673904703</v>
@@ -9284,7 +9287,7 @@
         <v>3620</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F56" s="8">
         <v>673904703</v>
@@ -9298,12 +9301,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>590</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>591</v>
       </c>
       <c r="C57" s="11">
         <v>674009571</v>
@@ -9312,7 +9315,7 @@
         <v>3000</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F57" s="12">
         <v>674009571</v>
@@ -9326,12 +9329,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="C58" s="7">
         <v>674445100</v>
@@ -9340,7 +9343,7 @@
         <v>3426</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F58" s="8">
         <v>674445100</v>
@@ -9354,12 +9357,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>596</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>597</v>
       </c>
       <c r="C59" s="11">
         <v>679530032</v>
@@ -9368,7 +9371,7 @@
         <v>3603</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F59" s="12">
         <v>679530032</v>
@@ -9382,12 +9385,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>599</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>600</v>
       </c>
       <c r="C60" s="7">
         <v>687239920</v>
@@ -9396,7 +9399,7 @@
         <v>3601</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F60" s="8">
         <v>687239920</v>
@@ -9410,12 +9413,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>602</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>603</v>
       </c>
       <c r="C61" s="11">
         <v>687239921</v>
@@ -9424,7 +9427,7 @@
         <v>9921</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F61" s="12">
         <v>687239921</v>
@@ -9438,12 +9441,12 @@
         <v>05447 REPSOL 1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>605</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>606</v>
       </c>
       <c r="C62" s="7">
         <v>690828188</v>
@@ -9452,7 +9455,7 @@
         <v>8188</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F62" s="8">
         <v>690828188</v>
@@ -9466,12 +9469,12 @@
         <v>Ribera</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>608</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>609</v>
       </c>
       <c r="C63" s="11">
         <v>692845902</v>
@@ -9480,7 +9483,7 @@
         <v>5902</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F63" s="12">
         <v>692845902</v>
@@ -9494,12 +9497,12 @@
         <v>692845902</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>611</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>612</v>
       </c>
       <c r="C64" s="7">
         <v>692845920</v>
@@ -9508,7 +9511,7 @@
         <v>3352</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F64" s="8">
         <v>692845920</v>
@@ -9522,12 +9525,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" thickBot="1">
+    <row r="65" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>614</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>615</v>
       </c>
       <c r="C65" s="11">
         <v>692845922</v>
@@ -9536,7 +9539,7 @@
         <v>3353</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F65" s="12">
         <v>692845922</v>
@@ -9550,12 +9553,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1">
+    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="C66" s="7">
         <v>692845941</v>
@@ -9564,7 +9567,7 @@
         <v>3354</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F66" s="8">
         <v>692845941</v>
@@ -9578,12 +9581,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1">
+    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>620</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>621</v>
       </c>
       <c r="C67" s="11">
         <v>692845983</v>
@@ -9592,7 +9595,7 @@
         <v>3610</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F67" s="12">
         <v>692845983</v>
@@ -9606,12 +9609,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" thickBot="1">
+    <row r="68" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>624</v>
       </c>
       <c r="C68" s="7">
         <v>692845987</v>
@@ -9620,7 +9623,7 @@
         <v>3650</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F68" s="8">
         <v>692845987</v>
@@ -9638,12 +9641,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" thickBot="1">
+    <row r="69" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>626</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>627</v>
       </c>
       <c r="C69" s="11">
         <v>692846014</v>
@@ -9652,7 +9655,7 @@
         <v>3622</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F69" s="12">
         <v>692846014</v>
@@ -9670,12 +9673,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1">
+    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>630</v>
       </c>
       <c r="C70" s="7">
         <v>692846068</v>
@@ -9684,7 +9687,7 @@
         <v>3651</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F70" s="8">
         <v>692846068</v>
@@ -9702,12 +9705,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" thickBot="1">
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>632</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>633</v>
       </c>
       <c r="C71" s="11">
         <v>697413883</v>
@@ -9716,7 +9719,7 @@
         <v>3428</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F71" s="12">
         <v>697413883</v>
@@ -9734,12 +9737,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" thickBot="1">
+    <row r="72" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>636</v>
       </c>
       <c r="C72" s="7">
         <v>973981333</v>
@@ -9748,7 +9751,7 @@
         <v>1333</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F72" s="8" t="e">
         <v>#N/A</v>
@@ -9766,12 +9769,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.75" thickBot="1">
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>638</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>639</v>
       </c>
       <c r="C73" s="11">
         <v>973981334</v>
@@ -9780,7 +9783,7 @@
         <v>1334</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F73" s="12" t="e">
         <v>#N/A</v>
@@ -9798,12 +9801,12 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1">
+    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>642</v>
       </c>
       <c r="C74" s="7">
         <v>973981335</v>
@@ -9812,7 +9815,7 @@
         <v>1335</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F74" s="8" t="e">
         <v>#N/A</v>
@@ -9830,12 +9833,12 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" thickBot="1">
+    <row r="75" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>644</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>645</v>
       </c>
       <c r="C75" s="11">
         <v>973981336</v>
@@ -9844,7 +9847,7 @@
         <v>1336</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F75" s="12" t="e">
         <v>#N/A</v>
@@ -9862,12 +9865,12 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" thickBot="1">
+    <row r="76" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>647</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>648</v>
       </c>
       <c r="C76" s="7">
         <v>973981337</v>
@@ -9876,7 +9879,7 @@
         <v>1337</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F76" s="8" t="e">
         <v>#N/A</v>
@@ -9894,12 +9897,12 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" thickBot="1">
+    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>650</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>651</v>
       </c>
       <c r="C77" s="11">
         <v>973981338</v>
@@ -9908,7 +9911,7 @@
         <v>1338</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F77" s="12" t="e">
         <v>#N/A</v>
@@ -9926,12 +9929,12 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1">
+    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="C78" s="7">
         <v>973981339</v>
@@ -9940,7 +9943,7 @@
         <v>1339</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F78" s="8" t="e">
         <v>#N/A</v>
@@ -9958,12 +9961,12 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" thickBot="1">
+    <row r="79" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B79" s="10" t="s">
         <v>656</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>657</v>
       </c>
       <c r="C79" s="11">
         <v>973981340</v>
@@ -9972,7 +9975,7 @@
         <v>1340</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F79" s="12" t="e">
         <v>#N/A</v>
@@ -9990,12 +9993,12 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1">
+    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="C80" s="7">
         <v>973981341</v>
@@ -10004,7 +10007,7 @@
         <v>1341</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F80" s="8" t="e">
         <v>#N/A</v>
@@ -10022,12 +10025,12 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1">
+    <row r="81" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>662</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>663</v>
       </c>
       <c r="C81" s="11">
         <v>973981342</v>
@@ -10036,7 +10039,7 @@
         <v>1342</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F81" s="12" t="e">
         <v>#N/A</v>
@@ -10054,12 +10057,12 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15.75" thickBot="1">
+    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>666</v>
       </c>
       <c r="C82" s="7">
         <v>973981343</v>
@@ -10068,7 +10071,7 @@
         <v>1343</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F82" s="8" t="e">
         <v>#N/A</v>
@@ -10086,15 +10089,15 @@
         <v>1510</v>
       </c>
       <c r="J82" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A83" s="9" t="s">
+      <c r="B83" s="10" t="s">
         <v>669</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>670</v>
       </c>
       <c r="C83" s="11">
         <v>973981344</v>
@@ -10103,7 +10106,7 @@
         <v>1344</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F83" s="12" t="e">
         <v>#N/A</v>
@@ -10121,12 +10124,12 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15.75" thickBot="1">
+    <row r="84" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>672</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>673</v>
       </c>
       <c r="C84" s="7">
         <v>973981345</v>
@@ -10135,7 +10138,7 @@
         <v>1345</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F84" s="8" t="e">
         <v>#N/A</v>
@@ -10153,12 +10156,12 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="15.75" thickBot="1">
+    <row r="85" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B85" s="10" t="s">
         <v>675</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>676</v>
       </c>
       <c r="C85" s="11">
         <v>973981346</v>
@@ -10167,7 +10170,7 @@
         <v>1346</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F85" s="12" t="e">
         <v>#N/A</v>
@@ -10185,12 +10188,12 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1">
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>678</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>679</v>
       </c>
       <c r="C86" s="7">
         <v>973981347</v>
@@ -10199,7 +10202,7 @@
         <v>1347</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F86" s="8" t="e">
         <v>#N/A</v>
@@ -10217,12 +10220,12 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="15.75" thickBot="1">
+    <row r="87" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>681</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>682</v>
       </c>
       <c r="C87" s="11">
         <v>973981348</v>
@@ -10231,7 +10234,7 @@
         <v>1348</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F87" s="12" t="e">
         <v>#N/A</v>
@@ -10249,12 +10252,12 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.75" thickBot="1">
+    <row r="88" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>685</v>
       </c>
       <c r="C88" s="7">
         <v>973981349</v>
@@ -10263,7 +10266,7 @@
         <v>1349</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F88" s="8" t="e">
         <v>#N/A</v>
@@ -10281,12 +10284,12 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="15.75" thickBot="1">
+    <row r="89" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B89" s="10" t="s">
         <v>687</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>688</v>
       </c>
       <c r="C89" s="11">
         <v>973981350</v>
@@ -10295,7 +10298,7 @@
         <v>1350</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F89" s="12" t="e">
         <v>#N/A</v>
@@ -10313,12 +10316,12 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15.75" thickBot="1">
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>690</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>691</v>
       </c>
       <c r="C90" s="7">
         <v>973981351</v>
@@ -10327,7 +10330,7 @@
         <v>1351</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F90" s="8" t="e">
         <v>#N/A</v>
@@ -10345,12 +10348,12 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="15.75" thickBot="1">
+    <row r="91" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>693</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>694</v>
       </c>
       <c r="C91" s="11">
         <v>973981352</v>
@@ -10359,7 +10362,7 @@
         <v>1352</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F91" s="12" t="e">
         <v>#N/A</v>
@@ -10377,12 +10380,12 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15.75" thickBot="1">
+    <row r="92" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>697</v>
       </c>
       <c r="C92" s="7">
         <v>973981353</v>
@@ -10391,7 +10394,7 @@
         <v>1353</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F92" s="8" t="e">
         <v>#N/A</v>
@@ -10409,15 +10412,15 @@
         <v>1000</v>
       </c>
       <c r="K92" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A93" s="9" t="s">
+      <c r="B93" s="10" t="s">
         <v>700</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>701</v>
       </c>
       <c r="C93" s="11">
         <v>973981354</v>
@@ -10426,7 +10429,7 @@
         <v>1354</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F93" s="12" t="e">
         <v>#N/A</v>
@@ -10444,12 +10447,12 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="15.75" thickBot="1">
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>703</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>704</v>
       </c>
       <c r="C94" s="7">
         <v>973981355</v>
@@ -10458,7 +10461,7 @@
         <v>1355</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F94" s="8" t="e">
         <v>#N/A</v>
@@ -10476,12 +10479,12 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="15.75" thickBot="1">
+    <row r="95" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B95" s="10" t="s">
         <v>706</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>707</v>
       </c>
       <c r="C95" s="11">
         <v>973981356</v>
@@ -10490,7 +10493,7 @@
         <v>1356</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F95" s="12" t="e">
         <v>#N/A</v>
@@ -10508,12 +10511,12 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1">
+    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>710</v>
       </c>
       <c r="C96" s="7">
         <v>973981357</v>
@@ -10522,7 +10525,7 @@
         <v>1357</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F96" s="8" t="e">
         <v>#N/A</v>
@@ -10540,12 +10543,12 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1">
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="B97" s="10" t="s">
         <v>712</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>713</v>
       </c>
       <c r="C97" s="11">
         <v>973981358</v>
@@ -10554,7 +10557,7 @@
         <v>1358</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F97" s="12" t="e">
         <v>#N/A</v>
@@ -10572,12 +10575,12 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1">
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>716</v>
       </c>
       <c r="C98" s="7">
         <v>973981359</v>
@@ -10586,7 +10589,7 @@
         <v>1359</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F98" s="8" t="e">
         <v>#N/A</v>
@@ -10604,12 +10607,12 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" thickBot="1">
+    <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>718</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>719</v>
       </c>
       <c r="C99" s="11">
         <v>973981360</v>
@@ -10618,7 +10621,7 @@
         <v>1360</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F99" s="12" t="e">
         <v>#N/A</v>
@@ -10636,12 +10639,12 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" thickBot="1">
+    <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>721</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>722</v>
       </c>
       <c r="C100" s="7">
         <v>973981361</v>
@@ -10650,7 +10653,7 @@
         <v>1361</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F100" s="8" t="e">
         <v>#N/A</v>
@@ -10668,12 +10671,12 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1">
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>724</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>725</v>
       </c>
       <c r="C101" s="11">
         <v>973981362</v>
@@ -10682,7 +10685,7 @@
         <v>1362</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F101" s="12" t="e">
         <v>#N/A</v>
@@ -10700,12 +10703,12 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1">
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>727</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>728</v>
       </c>
       <c r="C102" s="7">
         <v>973981363</v>
@@ -10714,7 +10717,7 @@
         <v>1363</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F102" s="8" t="e">
         <v>#N/A</v>
@@ -10732,12 +10735,12 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" thickBot="1">
+    <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>730</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>731</v>
       </c>
       <c r="C103" s="11">
         <v>973981364</v>
@@ -10746,7 +10749,7 @@
         <v>1364</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F103" s="12" t="e">
         <v>#N/A</v>
@@ -10764,12 +10767,12 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1">
+    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>734</v>
       </c>
       <c r="C104" s="7">
         <v>973981365</v>
@@ -10778,7 +10781,7 @@
         <v>1365</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F104" s="8" t="e">
         <v>#N/A</v>
@@ -10789,19 +10792,19 @@
       </c>
       <c r="H104" t="str">
         <f>VLOOKUP(G104,'ListadoPuestos-CGIPIPCENTREX001'!$A$1:$M$114,11,FALSE)</f>
-        <v>Anael Riera</v>
+        <v>Riera</v>
       </c>
       <c r="I104" t="str">
         <f>VLOOKUP(G104,'ListadoPuestos-CGIPIPCENTREX001'!$A$1:$M$114,2,FALSE)</f>
         <v>1572</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" thickBot="1">
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>736</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>737</v>
       </c>
       <c r="C105" s="11">
         <v>973981366</v>
@@ -10810,7 +10813,7 @@
         <v>1366</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F105" s="12" t="e">
         <v>#N/A</v>
@@ -10828,15 +10831,15 @@
         <v>1366</v>
       </c>
       <c r="J105" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>739</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>740</v>
       </c>
       <c r="C106" s="7">
         <v>973981367</v>
@@ -10845,7 +10848,7 @@
         <v>1367</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F106" s="8" t="e">
         <v>#N/A</v>
@@ -10863,12 +10866,12 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1">
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="C107" s="11">
         <v>973981368</v>
@@ -10877,7 +10880,7 @@
         <v>1368</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F107" s="12" t="e">
         <v>#N/A</v>
@@ -11012,5 +11015,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E0B9A81-F927-4062-8CDC-D2FE0A0ADAAA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E0B9A81-F927-4062-8CDC-D2FE0A0ADAAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>